--- a/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes, each, for our opening statements, I will then recognize other members seeking recognition for 1 minute.    We will then hear from our witnesses. And without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length limitations in the rules.    The chair now recognizes herself for 5 minutes.    Since 2011, Tunisians have made tremendous strides in overcoming decades of crippling authoritarian rule. Multiple free and fair elections, a modern constitution that enshrines women's rights, a rapidly opening space for freedom of the press, and a rare commitment by Tunisia's major political parties to negotiate and find mutually acceptable middle ground so that the democratic transition can continue. These are all remarkable achievements worthy of praise and admiration by Tunisians and outsiders alike.    But for many Tunisians, the transition is not happening nearly as fast as we would have imagined 5 years ago, as they are increasingly disappointed by what is seen as slow progress. Unemployment rates are high, especially for Tunisian youth and for women, and public administration and democracy are still mired by corruption, delays, and competing interests that too often prevent projects from being implemented.    The current government has made a lot of economic progress for which it deserves a great deal of credit, including passing major banking and investment laws which will go a long way in eventually spurring foreign direct investment and job creation.    However, getting that message out and informing the population about the government's achievements is an enormous challenge on its own. Tunisia's minimally staffed legislature does not have the necessary resources to connect with constituents to explain their efforts, especially to those in the interior.    And the central government's outreach problems are indicative of the challenges ahead for Tunisia's announced municipal elections in March next year.    Among many issues that need to be solved, the cabinet and the legislature still need to figure out how Tunisia will be divided into municipalities, and there is resistance at all levels to giving up central power.    While people see decentralization as a panacea, there is a lack of understanding about why the process is important, about the challenges it would create, and about what kinds of services should be expected from the newly empowered municipal leaders. All of these discussions are taking place in an increasingly challenging security environment, placing additional pressure on the government to succeed.    Terrorist attacks in 2015 cut Tunisia's tourism revenue in half, and the sector has still not recovered with many local hotels along the beach sitting empty.    In March, the Tunisian military successfully fought off ISIS as it attempted to overtake a southern city along the Libyan border. And earlier this month, Tunisian security forces again foiled an ISIS plot, killing four, and arresting 16 others, and just last week took out another top leader of the Tunisian ISIS affiliate. These successes are encouraging, and they are evidence of the security sector's growing capacity, a development which should be welcomed by this administration.    The Tunisian security forces are proving themselves to be professional and capable partners that the United States can rely on to help fight extremism, to help push back against ISIS, and to assist other regional partners to face down the same threats. Tunisia is facing a dangerous and persistent terrorist threat from within and without, especially through the porous Libyan border, along the Algerian border, and from returning foreign fighters of which some estimates place at around 6,500 Tunisians. We need to be strengthening our security cooperation with Tunisia, including helping it to fight violent extremism, investing more in law enforcement through our INCLE programs, and assisting more with border security like we saw with the recent contract for equipment and training for a border surveillance system. So many of these security, political, and economic issues are intertwined and reinforcing of each other, that it is essential that the United States and Tunisia's international partners remain fully committed to Tunisia on all fronts.    I was disappointed to see the administration request almost $20 million less in FMF funds for Tunisia this year, funds for which there is a clear need and would go a long way toward helping Tunisia remain stable.    Similarly, I was disappointed to see only a modest request for ESF funds. There is a lot more that this administration can be doing, especially with technical assistance, helping making the structural reforms necessary to encourage investment and entrepreneurship, and with helping promote commerce, tourism, and trade with the United States and other partners.    Tunisia is ready and willing to accept our assistance, and there is no shortage of partners who stand ready and able to program any help that we can provide.    Tunisia is a country whose democratic, economic, and security successes are vital to our own interests. And despite the many challenges, it is overflowing with opportunity in an increasingly troubled region of the world. We cannot afford to be turning away, diverting our attention, or scaling back our engagement, and I encourage our administration to make Tunisia the priority that it warrants.    With that, I am so pleased to recognize the ranking member, my good friend, Congressman Ted Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
-    <t>Theodore E. Deutch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you very much, Madam Chairman.    And thanks to our witnesses for appearing here today.    I know that this administration is committed to success of Tunisia, as are the members of this subcommittee. And I look forward to hearing how our policies and our systems are working toward that goal.    Five years have now passed since Tunisia's Jasmine revolution shook the region, and it's been clear that Tunisians want to see their nascent democracy thrive. Tunisia's leaders, while motivated in governing have difficult steps to take to undo decades of authoritarian rule. Unfortunately, slow progress has led to increasing disillusionment among Tunisians.    A region in turmoil has plunged this once relatively stable country into a security crisis that has affected its ability to bring about much needed economic growth. Youth unemployment is estimated to be over 30 percent, and the lack of job opportunities is frustrating Tunisia's young educated population, the very same demographic that drove the Jasmine Revolution.    In a recent poll, less than a third said that they believe the government is doing a good job addressing the country's problems. But hope is not lost, because the same poll found that 86 percent of Tunisians surveyed, still believes that democracy is the best form of governance.    Last week, Tunisia was granted nearly $8 billion in financing to help revise the economy, including a $2.8 billion 4-year emergency IMF loan, contingent on economic reforms to help increase employment opportunities and strengthen public institutions and a $5 billion World Bank loan to help bring about growth and create jobs.    The United States has invested heavily in bringing economic growth to Tunisia. The U.S.-Tunisia strategic dialogue most recently met in November 2015 and focused on economic opportunity, increasing trade, and strengthening partnerships and security cooperation.    I hope that we will see a follow-up meeting scheduled for this year. The Tunisia American Enterprise Fund aimed at bringing business and investments back to Tunisia has ceded $60 million since 2013. And the recent meeting of the U.S.-Tunisia joint economic commission has focused specifically on the ag or food sector, small and medium enterprises and information technology.    Unfortunately, an unstable security situation will not draw the new significant foreign investment that Tunisia badly needs. The horrific attacks on the Bardo Museum in Tunis and in Ben Guerdane have shaken Tunisian society and have dramatically decreased the foreign tourism that used to fuel the economy. The deteriorating situation in Libya, has had, and will continue to have, a dramatic impact on Tunisia as well.    Libya has served as home base to several of Tunisia's attackers. Tunisian forces, with the help of U.S. assistance, have stepped up efforts to control the border of Libya, and much of our assistance to Tunisia is now focused on counterterrorism.    If the decision is made for U.S. and coalition forces to go after ISIS in Libya, what effect will this have on Tunisia, which has so far sent a large contingent of foreign fighters to train with ISIS.    According to a recent Washington Post article, a strike in Libya killed 41 militants most of whom were Tunisians, just weeks before the attacks on Ben Guerdane. I am concerned that without greater prospects for employment, more young Tunisians will be drawn to ISIS' steady paycheck. And bringing about this kind of real change will take political will.    Thus far, Tunisia has faired well in transition of power with the country's leaders uniting for the good of the country. President Essebsi and his secular coalition joined with the Islamist Ennahda to form a unity government that has seen some moderate success in pushing through economic reforms, but progress on many other needed reforms has been slow.    In a recent surprising turn of events, last week, Ennahda announced the decision to separate religion from politics. As one media report put it, Ennahda's reform appear to try to distinguish itself in a region where political Islam has suffered setbacks. This, coupled with Tunisia's progressive by regional standards constitution bode well for the civility of the government.    The U.S. should continue to support programs that help improve good governance and streamline much of the bureaucracy left over from the Ben Ali era, and while I am heartened by this government's continued focus on transparency and accountability, I remain concerned about human rights abuses including those carried out by security forces. I also hope that we are using the voice of the United States Government to push for equal protection for the LGBT community, which has faced increasingly brutal persecution.    There are no shortage of challenges facing Tunisia, and we must be clear-eyed about the ability to successfully address them. But there at least seems to be willingness in the government to confront them, albeit slowly. And how can the U.S. most effectively support these reform efforts? How can we utilize our assistance to show the people of Tunisia that they should still have hope?    These are the questions that I look forward to discussing. I appreciate the administration's continued commitment to Tunisia, and I look forward to productive discussion today.    Thank you.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Madam Chair, I will wait until my turn.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Desrocher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Desrocher. Chairman Ros-Lehtinen, Ranking Member Deutch, members of the committee, I am honored to appear before you today to discuss our relations with the Republic of Tunisia.    It is a pleasure to share this table with my talented friend and colleague, Maria Longi, USAID's deputy assistant administrator for the Middle East.    Tunisia's 2011 revolution sparked the Arab Spring or Arab Awakening, which continues to reverberate throughout the region. While other countries have struggled with their transitions, Tunisia has emerged with a nascent yet stable democratic government. Tunisians have a constitution widely hailed as one of the most progressive in the Middle East, and they have conducted two sets of transparent and credible elections.    I am happy to report that the Tunisian-American partnership continues to deepen and mature as we confront shared security challenges, build sustainable economic growth that benefits both nations, and build strong democratic inclusive tradition that serves as a model for the region.    Tunisia is a reliable partner, and we can make it stronger if we continue to show our support.    Tunisia continues to face considerable challenges. Between 3,000 and 6,000 Tunisians have joined extremist groups abroad, and the horrific attacks of 2015 underline the very real threat that extremists pose to Tunisia. We cannot address security challenges in Tunisia without discussing Libyan instability. The attackers in the Bardo and Sousse attacks received training in Libyan terrorist camps, and there are between 250,000 and 1 million Libyans currently displaced from their own country and living in Tunisia. Without a permanent political solution to the ongoing strife in Libya, Tunisia will continue to face real and persistent security challenges from across the border.    Our assistance funding is helping the Tunisian security services develop a more agile security forces that respect human rights and democratic principles. Tunisia has used the United States as a principal partner in its efforts to strengthen military and civil police authorities. Our support will enhance security forces' capacity to counter threats from internal and external groups, monitor Tunisia's borders, communicate, and coordinate internally more effectively, and combat terrorists in diverse environments.    Our support also helps the civilian criminal justice sector improve respect for the rule of law and promote citizens security and access to justice across Tunisia.    Additionally, in 2015, President Obama designated Tunisia a major non-NATO ally in recognition of our shared values and Tunisia's strategic importance as a democratic success and critical line of defense against instability.    Tunisia continues to develop long neglected government institutions, or practices of the old regime linger. We are concerned about reports of corruption at all levels of government. Tunisia's big 10 government moves slowly. The ongoing disputes in the key party of the governing coalition has slowed decision further and reforms do not come as quickly as we would like.    But Tunisian officials rightly take pride in their country's exemplary efforts to promote the rule of law, transparency, and accountability, reform its security sector, and reinforce principles of democratic governance. Tunisians across the spectrum of society recognize that human rights abuses and corruption must be addressed and actively seek ways to create change. In recognition of the important role of civil society in advancing reform, Tunisia has joined the open government partnership and is partnering with civil society to promote transparency, accountability and participation in government.    Senior government officials are working to address challenges and repeatedly voice their commitment to reform.    More needs to be done on all of these fronts, but establishing transparency and accountability mechanisms and a culture of zero tolerance of corruption will take time.    Tunisia's faltering economy compounds the challenges facing the Tunisian Government. GDP growth in 2015 was anemic at 0.08 percent. Last year's terrorist attacks devastated the tourism industry, unemployment is over 15 percent, and twice as high as that for recent graduates, those living in the interior of the country, and for women.    Despite these difficulties, the Tunisian Government has made meaningful progress on economic reforms. They have already passed public-private partnership, bankruptcy, and banking laws, among others. I am optimistic that Tunisians will pass the new investment code this summer. Such reforms are laying the groundwork for increased investment trade and private sector engagement between the United States and Tunisia.    As Tunisians move forward on reforms to take steps to provide economic opportunity, they are holding fast to their democratic ideals. The full range of political actors, including political Islamists, are working together constructively to build Tunisia's democratic traditions.    Our investments in Tunisia have been rewarded by the steady development of inclusive governance institutions and processes, increased stability and security, and great strides toward financial sustainability. As a strategic partner and powerful example of a successful Arab democracy, Tunisians still need and want our support.    The development of a fully functioning and transparent democracy will take time and patience as Tunisians' leaders strengthen their institutions. With the help of Congress and our interagency colleagues, we will continue our work to build an even stronger partner in a volatile region.    I want to thank you, again, for the opportunity to testify, and I look forward to answering any questions you might have. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Desrocher.    And now we will turn to Ms. Longi.</t>
   </si>
   <si>
-    <t>Longi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Longi. Thank you.    Chairman Ros-Lehtinen, Ranking Member Deutch, and members of the subcommittee, thank you for the opportunity to discuss U.S. assistance to Tunisia and our partnership with the Tunisian people as they work for a stable democracy and economic prosperity.    We agree with Chairman Royce's recent assertion that Tunisia represents hope for democracy, peace, and security in the Middle East and North Africa. U.S. assistance serves as an important demonstration of our commitment to Tunisians as they work to consolidate reforms. We recognize that the 2011 revolution was sparked by the Tunisian people's frustrations with the stifling of political discourse, a corrupt economic environment, and a predatory security apparatus.    I would like to talk briefly about how the U.S. Government quickly and effectively responded to support Tunisia's aspirations for change, describe what we are doing in Tunisia today, and outline how we plan to scale up our support for the democratic transition and economic reforms.    Since 2011, USAID has provided approximately $300 million to support Tunisia's economic growth and democratic transition. This includes two sovereign loan guarantees that provided access to $985 million in financing, and helped support Tunisia's efforts to reform and grow its economy.    In the fall of 2011, the United States provided assistance to organizations in Tunisia that were organizing and administering multi-party elections for a Constituent Assembly charged with drafting a new constitution. Among our activities, we were able to connect U.S. Supreme Court Justices Stephen Breyer and Ruth Bader Ginsburg with members of the Constituent Assembly, political party representatives, and Tunisian legal scholars. This and other real practical engagements with emerging Tunisian leaders and civil society immediately after the revolution helped us to identify areas we could help going forward.    Another major area of U.S. engagement in Tunisia centers around its struggling economy. Through careful analysis, we identified significant constraints to job creation and economic growth in Tunisia, which we are working to address in many ways, including helping Tunisian firms unlock opportunities for growth and supporting job creation, training young entrepreneurs in marginalized areas, and providing technical assistance to Tunisia's Government as it drafts and implements laws to improve the investment climate and encourage private sector development.    These efforts have the immediate benefit of educating and employing Tunisia's youth to ensure a better future for them. As an example of how our work is directly responding to the needs of aspiring Tunisian workers, I would like to highlight a program for training Tunisian entrepreneurs in marginalized areas, primarily those close to Tunisia's borders with Algeria and Libya. This is a partnership with Hewlett Packard, the United Nation's Industrial Development Organization, and the Government of Italy, where USAID leveraged our resources to bring online entrepreneurship training for 12,000 Tunisians. More than 1,600 Tunisians have found new employment through this activity.    Among these entrepreneurs is Anis Assali, a young man who spent 14 months unable to find a job in the capital, Tunis, after earning a degree in aerospace engineering from the University of Tunis. He returned to his hometown in western Tunisia and decided to create his own employment by starting a business selling and installing solar panels. USAID-backed programs supported him with training and marketing and identifying reliable partners. His business has now grown from solar electricity to include solar water heating.    Another USAID program is working with businesses like Nozha Dates, based 300 miles southwest of Tunis. Nozha traditionally sold to an export company that wanted to develop direct export capabilities. USAID helped the company improve its standards, which enabled it to hire 55 new employees for its direct export business. All in all, USAID's programs in Tunisia have helped create more than 14,000 new jobs in 2 years alone and we are on track to create even more jobs by this time next year.    Thanks to the support of Congress, USAID's assistance is addressing targeted areas where U.S. and Tunisian partnerships can have the most impact. Our economic growth activities will continue to focus on employment through a firm level approach that helps firms identify and overcome internal blockages to growth, while also working with the Government of Tunisia to reform critical policies, regulations, and processes to limit the competitiveness of Tunisian businesses.    The U.S. will work to strengthen local governance capacity, placing a special emphasis on marginalized communities and underserved governorates and localities. Our programs will aim to provide citizens groups and civil society organizations with advocacy and outreach skills to articulate community priorities.    Right now, we have highly skilled technical teams in Tunisia consulting with key stakeholders to design targeted and strategic programs that will support Tunisia's democratic and economic transition. As we know well, the transition to a more democratic society and a more open and inclusive economic environment can be rocky and can move at intermittent speeds. Tunisia has made impressive strides in the past 5 years, and we recognize that there are a still long way to go.    With the support of Congress, USAID hopes to do even more to partner with Tunisia in its transition, working hand in hand with the Tunisian people to fulfill their aspirations. A successful Tunisia benefits the Tunisian people, the region, and the United States.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Madam Chair.    Gosh, I am learning some things about Tunisia here today. The population of Tunisia, I guess, is only----</t>
   </si>
   <si>
@@ -319,9 +301,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair. Good to seeing you. Thank you for being here. I find it interesting that there are fledging democracy that started with the Jasmine Revolution in 2011; the Arab Spring, the whole genesis of that. And then you see this fledging democracy building up, and things are going--what we would consider in the right way, and then we see the terrorist attacks that happened last summer and tourism is down 90 percent, the way I understand it and its kind of just floundering there and people aren't really flocking to get back there. And they have so much prime real estate, you know, from an American perspective looking at that. It is a beautiful part of the country.    If we look at that democracy and it is so important that we have a thriving democracy in there to show what liberty and freedoms can do. People that are striving to better their country like that. What have they done that is working, that we can learn from so that we can, you know, maybe have an influence or bolster that to effect, that they continue down that path? And what have they done that hasn't worked so that we don't make those mistakes when we are helping other countries that are fledging democracies that want to build from that?    And then a third question is, how much influence has the Muslim Brotherhood have in that country? And then I have got a couple more.</t>
   </si>
   <si>
@@ -365,9 +344,6 @@
   </si>
   <si>
     <t>412652</t>
-  </si>
-  <si>
-    <t>Brendan F. Boyle</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Boyle. Yes, thank you, Madam Chair and Ranking Member.    I wanted to ask you about two different issues, although you will I think pretty easily see the connection where I am going in a second.    The first is regarding the youth unemployment rate, which figures for 2015 show was estimated at 30 percent, remarkably high.    I was wondering to the extent that we know what is Tunisia doing right now to tackle this real problem?</t>
@@ -802,11 +778,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -854,11 +826,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -878,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -906,11 +874,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -930,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -958,11 +922,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -982,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1010,11 +970,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1034,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1062,11 +1018,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1086,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1114,11 +1066,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1138,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1166,11 +1114,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1190,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1216,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1242,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1268,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1294,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1320,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1346,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1372,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1400,11 +1330,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1424,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1450,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1476,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1502,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1528,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1554,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1580,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1606,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1632,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1658,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1684,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1710,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1736,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1762,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1788,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1814,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1840,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1866,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1892,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1918,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1944,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1970,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1996,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2022,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2048,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2074,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2100,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2126,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2152,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
-      </c>
-      <c r="G54" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2178,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2204,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2230,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2256,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2282,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2308,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2334,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2360,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2386,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2412,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2438,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2464,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2490,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2516,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2544,11 +2386,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2568,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2594,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2620,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2646,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2672,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2698,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2724,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2750,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2776,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2804,11 +2626,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2828,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2854,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2880,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2906,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2932,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2958,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2984,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>101</v>
-      </c>
-      <c r="H86" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3010,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3036,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3062,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3088,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3114,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3140,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s">
-        <v>101</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3168,11 +2962,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3192,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3218,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3244,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3270,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3296,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3322,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3348,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3374,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>117</v>
-      </c>
-      <c r="H101" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3400,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3426,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3452,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3480,11 +3250,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. The subcommittee will come to order.    After recognizing myself and Ranking Member Deutch for 5 minutes, each, for our opening statements, I will then recognize other members seeking recognition for 1 minute.    We will then hear from our witnesses. And without objection, the witnesses' prepared statements will be made a part of the record, and members may have 5 days to insert statements and questions for the record subject to the length limitations in the rules.    The chair now recognizes herself for 5 minutes.    Since 2011, Tunisians have made tremendous strides in overcoming decades of crippling authoritarian rule. Multiple free and fair elections, a modern constitution that enshrines women's rights, a rapidly opening space for freedom of the press, and a rare commitment by Tunisia's major political parties to negotiate and find mutually acceptable middle ground so that the democratic transition can continue. These are all remarkable achievements worthy of praise and admiration by Tunisians and outsiders alike.    But for many Tunisians, the transition is not happening nearly as fast as we would have imagined 5 years ago, as they are increasingly disappointed by what is seen as slow progress. Unemployment rates are high, especially for Tunisian youth and for women, and public administration and democracy are still mired by corruption, delays, and competing interests that too often prevent projects from being implemented.    The current government has made a lot of economic progress for which it deserves a great deal of credit, including passing major banking and investment laws which will go a long way in eventually spurring foreign direct investment and job creation.    However, getting that message out and informing the population about the government's achievements is an enormous challenge on its own. Tunisia's minimally staffed legislature does not have the necessary resources to connect with constituents to explain their efforts, especially to those in the interior.    And the central government's outreach problems are indicative of the challenges ahead for Tunisia's announced municipal elections in March next year.    Among many issues that need to be solved, the cabinet and the legislature still need to figure out how Tunisia will be divided into municipalities, and there is resistance at all levels to giving up central power.    While people see decentralization as a panacea, there is a lack of understanding about why the process is important, about the challenges it would create, and about what kinds of services should be expected from the newly empowered municipal leaders. All of these discussions are taking place in an increasingly challenging security environment, placing additional pressure on the government to succeed.    Terrorist attacks in 2015 cut Tunisia's tourism revenue in half, and the sector has still not recovered with many local hotels along the beach sitting empty.    In March, the Tunisian military successfully fought off ISIS as it attempted to overtake a southern city along the Libyan border. And earlier this month, Tunisian security forces again foiled an ISIS plot, killing four, and arresting 16 others, and just last week took out another top leader of the Tunisian ISIS affiliate. These successes are encouraging, and they are evidence of the security sector's growing capacity, a development which should be welcomed by this administration.    The Tunisian security forces are proving themselves to be professional and capable partners that the United States can rely on to help fight extremism, to help push back against ISIS, and to assist other regional partners to face down the same threats. Tunisia is facing a dangerous and persistent terrorist threat from within and without, especially through the porous Libyan border, along the Algerian border, and from returning foreign fighters of which some estimates place at around 6,500 Tunisians. We need to be strengthening our security cooperation with Tunisia, including helping it to fight violent extremism, investing more in law enforcement through our INCLE programs, and assisting more with border security like we saw with the recent contract for equipment and training for a border surveillance system. So many of these security, political, and economic issues are intertwined and reinforcing of each other, that it is essential that the United States and Tunisia's international partners remain fully committed to Tunisia on all fronts.    I was disappointed to see the administration request almost $20 million less in FMF funds for Tunisia this year, funds for which there is a clear need and would go a long way toward helping Tunisia remain stable.    Similarly, I was disappointed to see only a modest request for ESF funds. There is a lot more that this administration can be doing, especially with technical assistance, helping making the structural reforms necessary to encourage investment and entrepreneurship, and with helping promote commerce, tourism, and trade with the United States and other partners.    Tunisia is ready and willing to accept our assistance, and there is no shortage of partners who stand ready and able to program any help that we can provide.    Tunisia is a country whose democratic, economic, and security successes are vital to our own interests. And despite the many challenges, it is overflowing with opportunity in an increasingly troubled region of the world. We cannot afford to be turning away, diverting our attention, or scaling back our engagement, and I encourage our administration to make Tunisia the priority that it warrants.    With that, I am so pleased to recognize the ranking member, my good friend, Congressman Ted Deutch of Florida.</t>
   </si>
   <si>
     <t>412385</t>
   </si>
   <si>
+    <t>Deutch</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deutch. Thank you very much, Madam Chairman.    And thanks to our witnesses for appearing here today.    I know that this administration is committed to success of Tunisia, as are the members of this subcommittee. And I look forward to hearing how our policies and our systems are working toward that goal.    Five years have now passed since Tunisia's Jasmine revolution shook the region, and it's been clear that Tunisians want to see their nascent democracy thrive. Tunisia's leaders, while motivated in governing have difficult steps to take to undo decades of authoritarian rule. Unfortunately, slow progress has led to increasing disillusionment among Tunisians.    A region in turmoil has plunged this once relatively stable country into a security crisis that has affected its ability to bring about much needed economic growth. Youth unemployment is estimated to be over 30 percent, and the lack of job opportunities is frustrating Tunisia's young educated population, the very same demographic that drove the Jasmine Revolution.    In a recent poll, less than a third said that they believe the government is doing a good job addressing the country's problems. But hope is not lost, because the same poll found that 86 percent of Tunisians surveyed, still believes that democracy is the best form of governance.    Last week, Tunisia was granted nearly $8 billion in financing to help revise the economy, including a $2.8 billion 4-year emergency IMF loan, contingent on economic reforms to help increase employment opportunities and strengthen public institutions and a $5 billion World Bank loan to help bring about growth and create jobs.    The United States has invested heavily in bringing economic growth to Tunisia. The U.S.-Tunisia strategic dialogue most recently met in November 2015 and focused on economic opportunity, increasing trade, and strengthening partnerships and security cooperation.    I hope that we will see a follow-up meeting scheduled for this year. The Tunisia American Enterprise Fund aimed at bringing business and investments back to Tunisia has ceded $60 million since 2013. And the recent meeting of the U.S.-Tunisia joint economic commission has focused specifically on the ag or food sector, small and medium enterprises and information technology.    Unfortunately, an unstable security situation will not draw the new significant foreign investment that Tunisia badly needs. The horrific attacks on the Bardo Museum in Tunis and in Ben Guerdane have shaken Tunisian society and have dramatically decreased the foreign tourism that used to fuel the economy. The deteriorating situation in Libya, has had, and will continue to have, a dramatic impact on Tunisia as well.    Libya has served as home base to several of Tunisia's attackers. Tunisian forces, with the help of U.S. assistance, have stepped up efforts to control the border of Libya, and much of our assistance to Tunisia is now focused on counterterrorism.    If the decision is made for U.S. and coalition forces to go after ISIS in Libya, what effect will this have on Tunisia, which has so far sent a large contingent of foreign fighters to train with ISIS.    According to a recent Washington Post article, a strike in Libya killed 41 militants most of whom were Tunisians, just weeks before the attacks on Ben Guerdane. I am concerned that without greater prospects for employment, more young Tunisians will be drawn to ISIS' steady paycheck. And bringing about this kind of real change will take political will.    Thus far, Tunisia has faired well in transition of power with the country's leaders uniting for the good of the country. President Essebsi and his secular coalition joined with the Islamist Ennahda to form a unity government that has seen some moderate success in pushing through economic reforms, but progress on many other needed reforms has been slow.    In a recent surprising turn of events, last week, Ennahda announced the decision to separate religion from politics. As one media report put it, Ennahda's reform appear to try to distinguish itself in a region where political Islam has suffered setbacks. This, coupled with Tunisia's progressive by regional standards constitution bode well for the civility of the government.    The U.S. should continue to support programs that help improve good governance and streamline much of the bureaucracy left over from the Ben Ali era, and while I am heartened by this government's continued focus on transparency and accountability, I remain concerned about human rights abuses including those carried out by security forces. I also hope that we are using the voice of the United States Government to push for equal protection for the LGBT community, which has faced increasingly brutal persecution.    There are no shortage of challenges facing Tunisia, and we must be clear-eyed about the ability to successfully address them. But there at least seems to be willingness in the government to confront them, albeit slowly. And how can the U.S. most effectively support these reform efforts? How can we utilize our assistance to show the people of Tunisia that they should still have hope?    These are the questions that I look forward to discussing. I appreciate the administration's continued commitment to Tunisia, and I look forward to productive discussion today.    Thank you.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412529</t>
   </si>
   <si>
+    <t>Frankel</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Frankel. Madam Chair, I will wait until my turn.</t>
   </si>
   <si>
@@ -76,12 +97,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Desrocher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Desrocher. Chairman Ros-Lehtinen, Ranking Member Deutch, members of the committee, I am honored to appear before you today to discuss our relations with the Republic of Tunisia.    It is a pleasure to share this table with my talented friend and colleague, Maria Longi, USAID's deputy assistant administrator for the Middle East.    Tunisia's 2011 revolution sparked the Arab Spring or Arab Awakening, which continues to reverberate throughout the region. While other countries have struggled with their transitions, Tunisia has emerged with a nascent yet stable democratic government. Tunisians have a constitution widely hailed as one of the most progressive in the Middle East, and they have conducted two sets of transparent and credible elections.    I am happy to report that the Tunisian-American partnership continues to deepen and mature as we confront shared security challenges, build sustainable economic growth that benefits both nations, and build strong democratic inclusive tradition that serves as a model for the region.    Tunisia is a reliable partner, and we can make it stronger if we continue to show our support.    Tunisia continues to face considerable challenges. Between 3,000 and 6,000 Tunisians have joined extremist groups abroad, and the horrific attacks of 2015 underline the very real threat that extremists pose to Tunisia. We cannot address security challenges in Tunisia without discussing Libyan instability. The attackers in the Bardo and Sousse attacks received training in Libyan terrorist camps, and there are between 250,000 and 1 million Libyans currently displaced from their own country and living in Tunisia. Without a permanent political solution to the ongoing strife in Libya, Tunisia will continue to face real and persistent security challenges from across the border.    Our assistance funding is helping the Tunisian security services develop a more agile security forces that respect human rights and democratic principles. Tunisia has used the United States as a principal partner in its efforts to strengthen military and civil police authorities. Our support will enhance security forces' capacity to counter threats from internal and external groups, monitor Tunisia's borders, communicate, and coordinate internally more effectively, and combat terrorists in diverse environments.    Our support also helps the civilian criminal justice sector improve respect for the rule of law and promote citizens security and access to justice across Tunisia.    Additionally, in 2015, President Obama designated Tunisia a major non-NATO ally in recognition of our shared values and Tunisia's strategic importance as a democratic success and critical line of defense against instability.    Tunisia continues to develop long neglected government institutions, or practices of the old regime linger. We are concerned about reports of corruption at all levels of government. Tunisia's big 10 government moves slowly. The ongoing disputes in the key party of the governing coalition has slowed decision further and reforms do not come as quickly as we would like.    But Tunisian officials rightly take pride in their country's exemplary efforts to promote the rule of law, transparency, and accountability, reform its security sector, and reinforce principles of democratic governance. Tunisians across the spectrum of society recognize that human rights abuses and corruption must be addressed and actively seek ways to create change. In recognition of the important role of civil society in advancing reform, Tunisia has joined the open government partnership and is partnering with civil society to promote transparency, accountability and participation in government.    Senior government officials are working to address challenges and repeatedly voice their commitment to reform.    More needs to be done on all of these fronts, but establishing transparency and accountability mechanisms and a culture of zero tolerance of corruption will take time.    Tunisia's faltering economy compounds the challenges facing the Tunisian Government. GDP growth in 2015 was anemic at 0.08 percent. Last year's terrorist attacks devastated the tourism industry, unemployment is over 15 percent, and twice as high as that for recent graduates, those living in the interior of the country, and for women.    Despite these difficulties, the Tunisian Government has made meaningful progress on economic reforms. They have already passed public-private partnership, bankruptcy, and banking laws, among others. I am optimistic that Tunisians will pass the new investment code this summer. Such reforms are laying the groundwork for increased investment trade and private sector engagement between the United States and Tunisia.    As Tunisians move forward on reforms to take steps to provide economic opportunity, they are holding fast to their democratic ideals. The full range of political actors, including political Islamists, are working together constructively to build Tunisia's democratic traditions.    Our investments in Tunisia have been rewarded by the steady development of inclusive governance institutions and processes, increased stability and security, and great strides toward financial sustainability. As a strategic partner and powerful example of a successful Arab democracy, Tunisians still need and want our support.    The development of a fully functioning and transparent democracy will take time and patience as Tunisians' leaders strengthen their institutions. With the help of Congress and our interagency colleagues, we will continue our work to build an even stronger partner in a volatile region.    I want to thank you, again, for the opportunity to testify, and I look forward to answering any questions you might have. Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen. Thank you so much, Mr. Desrocher.    And now we will turn to Ms. Longi.</t>
   </si>
   <si>
+    <t>Longi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Longi. Thank you.    Chairman Ros-Lehtinen, Ranking Member Deutch, and members of the subcommittee, thank you for the opportunity to discuss U.S. assistance to Tunisia and our partnership with the Tunisian people as they work for a stable democracy and economic prosperity.    We agree with Chairman Royce's recent assertion that Tunisia represents hope for democracy, peace, and security in the Middle East and North Africa. U.S. assistance serves as an important demonstration of our commitment to Tunisians as they work to consolidate reforms. We recognize that the 2011 revolution was sparked by the Tunisian people's frustrations with the stifling of political discourse, a corrupt economic environment, and a predatory security apparatus.    I would like to talk briefly about how the U.S. Government quickly and effectively responded to support Tunisia's aspirations for change, describe what we are doing in Tunisia today, and outline how we plan to scale up our support for the democratic transition and economic reforms.    Since 2011, USAID has provided approximately $300 million to support Tunisia's economic growth and democratic transition. This includes two sovereign loan guarantees that provided access to $985 million in financing, and helped support Tunisia's efforts to reform and grow its economy.    In the fall of 2011, the United States provided assistance to organizations in Tunisia that were organizing and administering multi-party elections for a Constituent Assembly charged with drafting a new constitution. Among our activities, we were able to connect U.S. Supreme Court Justices Stephen Breyer and Ruth Bader Ginsburg with members of the Constituent Assembly, political party representatives, and Tunisian legal scholars. This and other real practical engagements with emerging Tunisian leaders and civil society immediately after the revolution helped us to identify areas we could help going forward.    Another major area of U.S. engagement in Tunisia centers around its struggling economy. Through careful analysis, we identified significant constraints to job creation and economic growth in Tunisia, which we are working to address in many ways, including helping Tunisian firms unlock opportunities for growth and supporting job creation, training young entrepreneurs in marginalized areas, and providing technical assistance to Tunisia's Government as it drafts and implements laws to improve the investment climate and encourage private sector development.    These efforts have the immediate benefit of educating and employing Tunisia's youth to ensure a better future for them. As an example of how our work is directly responding to the needs of aspiring Tunisian workers, I would like to highlight a program for training Tunisian entrepreneurs in marginalized areas, primarily those close to Tunisia's borders with Algeria and Libya. This is a partnership with Hewlett Packard, the United Nation's Industrial Development Organization, and the Government of Italy, where USAID leveraged our resources to bring online entrepreneurship training for 12,000 Tunisians. More than 1,600 Tunisians have found new employment through this activity.    Among these entrepreneurs is Anis Assali, a young man who spent 14 months unable to find a job in the capital, Tunis, after earning a degree in aerospace engineering from the University of Tunis. He returned to his hometown in western Tunisia and decided to create his own employment by starting a business selling and installing solar panels. USAID-backed programs supported him with training and marketing and identifying reliable partners. His business has now grown from solar electricity to include solar water heating.    Another USAID program is working with businesses like Nozha Dates, based 300 miles southwest of Tunis. Nozha traditionally sold to an export company that wanted to develop direct export capabilities. USAID helped the company improve its standards, which enabled it to hire 55 new employees for its direct export business. All in all, USAID's programs in Tunisia have helped create more than 14,000 new jobs in 2 years alone and we are on track to create even more jobs by this time next year.    Thanks to the support of Congress, USAID's assistance is addressing targeted areas where U.S. and Tunisian partnerships can have the most impact. Our economic growth activities will continue to focus on employment through a firm level approach that helps firms identify and overcome internal blockages to growth, while also working with the Government of Tunisia to reform critical policies, regulations, and processes to limit the competitiveness of Tunisian businesses.    The U.S. will work to strengthen local governance capacity, placing a special emphasis on marginalized communities and underserved governorates and localities. Our programs will aim to provide citizens groups and civil society organizations with advocacy and outreach skills to articulate community priorities.    Right now, we have highly skilled technical teams in Tunisia consulting with key stakeholders to design targeted and strategic programs that will support Tunisia's democratic and economic transition. As we know well, the transition to a more democratic society and a more open and inclusive economic environment can be rocky and can move at intermittent speeds. Tunisia has made impressive strides in the past 5 years, and we recognize that there are a still long way to go.    With the support of Congress, USAID hopes to do even more to partner with Tunisia in its transition, working hand in hand with the Tunisian people to fulfill their aspirations. A successful Tunisia benefits the Tunisian people, the region, and the United States.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
@@ -136,6 +163,12 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Madam Chair.    Gosh, I am learning some things about Tunisia here today. The population of Tunisia, I guess, is only----</t>
   </si>
   <si>
@@ -301,6 +334,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Madam Chair. Good to seeing you. Thank you for being here. I find it interesting that there are fledging democracy that started with the Jasmine Revolution in 2011; the Arab Spring, the whole genesis of that. And then you see this fledging democracy building up, and things are going--what we would consider in the right way, and then we see the terrorist attacks that happened last summer and tourism is down 90 percent, the way I understand it and its kind of just floundering there and people aren't really flocking to get back there. And they have so much prime real estate, you know, from an American perspective looking at that. It is a beautiful part of the country.    If we look at that democracy and it is so important that we have a thriving democracy in there to show what liberty and freedoms can do. People that are striving to better their country like that. What have they done that is working, that we can learn from so that we can, you know, maybe have an influence or bolster that to effect, that they continue down that path? And what have they done that hasn't worked so that we don't make those mistakes when we are helping other countries that are fledging democracies that want to build from that?    And then a third question is, how much influence has the Muslim Brotherhood have in that country? And then I have got a couple more.</t>
   </si>
   <si>
@@ -344,6 +383,12 @@
   </si>
   <si>
     <t>412652</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Brendan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Boyle. Yes, thank you, Madam Chair and Ranking Member.    I wanted to ask you about two different issues, although you will I think pretty easily see the connection where I am going in a second.    The first is regarding the youth unemployment rate, which figures for 2015 show was estimated at 30 percent, remarkably high.    I was wondering to the extent that we know what is Tunisia doing right now to tackle this real problem?</t>
@@ -728,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +781,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,2501 +803,2932 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>49</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G56" t="s">
+        <v>49</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G58" t="s">
+        <v>49</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>49</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G64" t="s">
+        <v>49</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G66" t="s">
+        <v>49</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G68" t="s">
+        <v>49</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>49</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>106</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s">
+        <v>106</v>
+      </c>
       <c r="H92" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G96" t="s">
+        <v>123</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s">
+        <v>123</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ros-Lehtinen</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412385</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Deutch</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
   </si>
   <si>
     <t>412529</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Frankel</t>
@@ -773,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,7 +793,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,2929 +818,3152 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>31</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>31</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>136</v>
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
